--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F85E5F-148F-4A5E-8A0C-5B1ED5983D8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D5FF57-2A63-47C0-85AC-A7DA7C563415}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Fila</t>
   </si>
   <si>
-    <t>Fjällräven</t>
-  </si>
-  <si>
     <t>Fossil</t>
   </si>
   <si>
@@ -440,15 +437,9 @@
     <t>Bluemint</t>
   </si>
   <si>
-    <t>BOND NO. 9</t>
-  </si>
-  <si>
     <t>Breil</t>
   </si>
   <si>
-    <t>Bric's</t>
-  </si>
-  <si>
     <t>Bricktown World</t>
   </si>
   <si>
@@ -473,9 +464,6 @@
     <t>Bvlgari</t>
   </si>
   <si>
-    <t>C.P. Company</t>
-  </si>
-  <si>
     <t>Canada Goose</t>
   </si>
   <si>
@@ -494,18 +482,9 @@
     <t>CHANEL</t>
   </si>
   <si>
-    <t>Chasin'</t>
-  </si>
-  <si>
-    <t>Church's</t>
-  </si>
-  <si>
     <t>City Cufflinks</t>
   </si>
   <si>
-    <t>Claesen's</t>
-  </si>
-  <si>
     <t>Clarins</t>
   </si>
   <si>
@@ -581,9 +560,6 @@
     <t>DOIY</t>
   </si>
   <si>
-    <t>Drake's</t>
-  </si>
-  <si>
     <t>ellesse</t>
   </si>
   <si>
@@ -593,9 +569,6 @@
     <t>Essenza</t>
   </si>
   <si>
-    <t>Estée Lauder</t>
-  </si>
-  <si>
     <t>ETQ</t>
   </si>
   <si>
@@ -662,9 +635,6 @@
     <t>Happy Socks</t>
   </si>
   <si>
-    <t>HERMÈS</t>
-  </si>
-  <si>
     <t>Herschel Supply</t>
   </si>
   <si>
@@ -686,9 +656,6 @@
     <t>IZIPIZI</t>
   </si>
   <si>
-    <t>J.Crew</t>
-  </si>
-  <si>
     <t>Jaguar</t>
   </si>
   <si>
@@ -719,9 +686,6 @@
     <t>KENZO</t>
   </si>
   <si>
-    <t>Kiehl's</t>
-  </si>
-  <si>
     <t>Kikkerland</t>
   </si>
   <si>
@@ -737,9 +701,6 @@
     <t>Lancaster</t>
   </si>
   <si>
-    <t>Lancôme</t>
-  </si>
-  <si>
     <t>Larsson &amp; Jennings</t>
   </si>
   <si>
@@ -767,9 +728,6 @@
     <t>Maen</t>
   </si>
   <si>
-    <t>Maison Kitsuné</t>
-  </si>
-  <si>
     <t>Maison Margiela</t>
   </si>
   <si>
@@ -827,9 +785,6 @@
     <t>Moroccanoil</t>
   </si>
   <si>
-    <t>M·A·C</t>
-  </si>
-  <si>
     <t>Narciso Rodriguez</t>
   </si>
   <si>
@@ -845,9 +800,6 @@
     <t>Nikos</t>
   </si>
   <si>
-    <t>NN07</t>
-  </si>
-  <si>
     <t>Nobis</t>
   </si>
   <si>
@@ -950,9 +902,6 @@
     <t>RVLT Revolution</t>
   </si>
   <si>
-    <t>Samsøe &amp; Samsøe</t>
-  </si>
-  <si>
     <t>Sandqvist</t>
   </si>
   <si>
@@ -1058,9 +1007,6 @@
     <t>TOM FORD</t>
   </si>
   <si>
-    <t>Tumble 'n Dry</t>
-  </si>
-  <si>
     <t>Tumi</t>
   </si>
   <si>
@@ -1103,9 +1049,6 @@
     <t>Welter Shelter</t>
   </si>
   <si>
-    <t>Wood'd</t>
-  </si>
-  <si>
     <t>Y-3</t>
   </si>
   <si>
@@ -1133,9 +1076,6 @@
     <t>HoutBrox</t>
   </si>
   <si>
-    <t>Hunkemöller</t>
-  </si>
-  <si>
     <t>Mexx</t>
   </si>
   <si>
@@ -1338,6 +1278,39 @@
   </si>
   <si>
     <t>EnforcementDBUrl</t>
+  </si>
+  <si>
+    <t>Hunkemoller</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Tumble n Dry</t>
+  </si>
+  <si>
+    <t>Lancome</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>Estee Lauder</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Chasin</t>
+  </si>
+  <si>
+    <t>Churchs</t>
+  </si>
+  <si>
+    <t>Claesens</t>
+  </si>
+  <si>
+    <t>Brics</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
-  <dimension ref="A1:A354"/>
+  <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F375" sqref="F375"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,12 +1680,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1722,7 +1695,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1732,12 +1705,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -1747,27 +1720,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -1777,12 +1750,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1792,17 +1765,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1812,12 +1785,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -1827,522 +1800,522 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
@@ -2352,187 +2325,187 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
@@ -2542,932 +2515,887 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>283</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>302</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>326</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>331</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>341</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>342</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>98</v>
+        <v>335</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>100</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3479,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBAF63-11C6-4E85-926A-7576D04BFACD}">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3495,102 +3423,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -3600,107 +3528,107 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -3710,82 +3638,82 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
@@ -3795,42 +3723,42 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -3840,42 +3768,42 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -3885,7 +3813,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3914,16 +3842,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D5FF57-2A63-47C0-85AC-A7DA7C563415}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35344602-F2FF-4F5E-936F-CB5F4801D38A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>Lee</t>
   </si>
   <si>
-    <t>Levi's</t>
-  </si>
-  <si>
     <t>Maison Martin Margiela</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>Biotherm</t>
   </si>
   <si>
-    <t>Björn Borg</t>
-  </si>
-  <si>
     <t>Black and gold</t>
   </si>
   <si>
@@ -503,9 +497,6 @@
     <t>Collonil</t>
   </si>
   <si>
-    <t>Comme des Garçons</t>
-  </si>
-  <si>
     <t>Corneliani</t>
   </si>
   <si>
@@ -911,9 +902,6 @@
     <t>Schiesser</t>
   </si>
   <si>
-    <t>Scotch R'Belle</t>
-  </si>
-  <si>
     <t>Scotch&amp;Soda</t>
   </si>
   <si>
@@ -1115,9 +1103,6 @@
     <t>Bamigo</t>
   </si>
   <si>
-    <t>Bon'a parte</t>
-  </si>
-  <si>
     <t>Bonprix</t>
   </si>
   <si>
@@ -1148,9 +1133,6 @@
     <t>Eyelove Brillen</t>
   </si>
   <si>
-    <t>eyes + more</t>
-  </si>
-  <si>
     <t>Hans Anders</t>
   </si>
   <si>
@@ -1311,6 +1293,24 @@
   </si>
   <si>
     <t>Brics</t>
+  </si>
+  <si>
+    <t>Bjorn Borg</t>
+  </si>
+  <si>
+    <t>Comme des Garcons</t>
+  </si>
+  <si>
+    <t>Levis</t>
+  </si>
+  <si>
+    <t>Scotch RBelle</t>
+  </si>
+  <si>
+    <t>Bona parte</t>
+  </si>
+  <si>
+    <t>eyes more</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
   <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,12 +1680,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1705,12 +1705,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -1720,27 +1720,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -1750,12 +1750,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1765,17 +1765,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1785,12 +1785,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -1800,82 +1800,82 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -1885,52 +1885,52 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -1940,7 +1940,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -1950,52 +1950,52 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
@@ -2005,27 +2005,27 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -2045,72 +2045,72 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
@@ -2120,12 +2120,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
@@ -2135,12 +2135,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -2170,22 +2170,22 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
@@ -2220,17 +2220,17 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
@@ -2250,52 +2250,52 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
@@ -2325,17 +2325,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
@@ -2370,22 +2370,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
@@ -2400,17 +2400,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
@@ -2425,17 +2425,17 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
@@ -2450,37 +2450,37 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
@@ -2495,17 +2495,17 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
@@ -2525,17 +2525,17 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
@@ -2545,12 +2545,12 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
@@ -2560,187 +2560,187 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
@@ -2750,432 +2750,432 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
@@ -3185,217 +3185,217 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3423,97 +3423,97 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -3528,17 +3528,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -3548,87 +3548,87 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -3638,82 +3638,82 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
@@ -3723,42 +3723,42 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -3768,42 +3768,42 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3842,16 +3842,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35344602-F2FF-4F5E-936F-CB5F4801D38A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969868E2-8BBB-4D11-9F96-5639FF20F294}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="3" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturer" sheetId="1" r:id="rId1"/>
     <sheet name="Orderer" sheetId="2" r:id="rId2"/>
     <sheet name="Product" sheetId="3" r:id="rId3"/>
+    <sheet name="Douane" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="439">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -722,9 +723,6 @@
     <t>Maison Margiela</t>
   </si>
   <si>
-    <t>Marc O'Polo</t>
-  </si>
-  <si>
     <t>Mason Garments</t>
   </si>
   <si>
@@ -1190,9 +1188,6 @@
     <t>PME Legend</t>
   </si>
   <si>
-    <t>Polarn O. Pyret</t>
-  </si>
-  <si>
     <t>Promiss</t>
   </si>
   <si>
@@ -1311,6 +1306,45 @@
   </si>
   <si>
     <t>eyes more</t>
+  </si>
+  <si>
+    <t>Polarn O Pyret</t>
+  </si>
+  <si>
+    <t>Marc O Polo</t>
+  </si>
+  <si>
+    <t>Douane</t>
+  </si>
+  <si>
+    <t>Douane Amsterdam</t>
+  </si>
+  <si>
+    <t>Douane Rotterdam</t>
+  </si>
+  <si>
+    <t>Douane Antwerpen</t>
+  </si>
+  <si>
+    <t>Douane Brussel</t>
+  </si>
+  <si>
+    <t>Douane New York</t>
+  </si>
+  <si>
+    <t>Douane China</t>
+  </si>
+  <si>
+    <t>Douane Suriname</t>
+  </si>
+  <si>
+    <t>Douane India</t>
+  </si>
+  <si>
+    <t>Douane Frankrijk</t>
+  </si>
+  <si>
+    <t>Douane Spanje</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
   <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1899,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -1890,7 +1924,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -1975,12 +2009,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
@@ -1990,7 +2024,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -2035,7 +2069,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -2150,7 +2184,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -2185,7 +2219,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
@@ -2370,7 +2404,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
@@ -2535,7 +2569,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
@@ -2570,7 +2604,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
@@ -2610,7 +2644,7 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>231</v>
+        <v>427</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
@@ -2620,42 +2654,42 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
@@ -2665,57 +2699,57 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
@@ -2725,7 +2759,7 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
@@ -2740,7 +2774,7 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
@@ -2750,7 +2784,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
@@ -2760,22 +2794,22 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
@@ -2790,22 +2824,22 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
@@ -2815,7 +2849,7 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
@@ -2830,17 +2864,17 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
@@ -2850,17 +2884,17 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
@@ -2880,27 +2914,27 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
@@ -2915,12 +2949,12 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
@@ -2930,12 +2964,12 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
@@ -2955,7 +2989,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
@@ -2970,12 +3004,12 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
@@ -2985,27 +3019,27 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
@@ -3015,12 +3049,12 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
@@ -3040,12 +3074,12 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
@@ -3055,127 +3089,127 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
@@ -3190,17 +3224,17 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
@@ -3210,12 +3244,12 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
@@ -3225,7 +3259,7 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
@@ -3235,12 +3269,12 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
@@ -3255,22 +3289,22 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
@@ -3290,32 +3324,32 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
@@ -3325,27 +3359,27 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
@@ -3355,27 +3389,27 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
@@ -3390,12 +3424,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3407,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBAF63-11C6-4E85-926A-7576D04BFACD}">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3428,92 +3462,92 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -3528,17 +3562,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -3548,87 +3582,87 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -3638,32 +3672,32 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -3673,42 +3707,42 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
@@ -3728,37 +3762,37 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -3768,42 +3802,42 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -3813,7 +3847,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3842,16 +3876,89 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
         <v>407</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>408</v>
       </c>
-      <c r="C1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" t="s">
-        <v>410</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C8FFF-B55A-4223-8A3A-B7DB0DBD20CE}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969868E2-8BBB-4D11-9F96-5639FF20F294}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D63B1-6804-41C2-9FA3-A85D1FF405ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="3" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="4" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturer" sheetId="1" r:id="rId1"/>
     <sheet name="Orderer" sheetId="2" r:id="rId2"/>
-    <sheet name="Product" sheetId="3" r:id="rId3"/>
-    <sheet name="Douane" sheetId="4" r:id="rId4"/>
+    <sheet name="Douane" sheetId="4" r:id="rId3"/>
+    <sheet name="Product" sheetId="3" r:id="rId4"/>
+    <sheet name="Transporter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -1245,18 +1246,12 @@
     <t>Zinzi</t>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>EnforcementDBUrl</t>
-  </si>
-  <si>
     <t>Hunkemoller</t>
   </si>
   <si>
@@ -1345,6 +1340,258 @@
   </si>
   <si>
     <t>Douane Spanje</t>
+  </si>
+  <si>
+    <t>Afritsbroek</t>
+  </si>
+  <si>
+    <t>Badpak</t>
+  </si>
+  <si>
+    <t>Bandana</t>
+  </si>
+  <si>
+    <t>Bergschoenen</t>
+  </si>
+  <si>
+    <t>BHs</t>
+  </si>
+  <si>
+    <t>Bikini</t>
+  </si>
+  <si>
+    <t>Bikinibroekje</t>
+  </si>
+  <si>
+    <t>Blouses</t>
+  </si>
+  <si>
+    <t>Bodywarmer</t>
+  </si>
+  <si>
+    <t>Boxershorts</t>
+  </si>
+  <si>
+    <t>Broeken</t>
+  </si>
+  <si>
+    <t>Broekriem</t>
+  </si>
+  <si>
+    <t>Campingsmoking</t>
+  </si>
+  <si>
+    <t>Driekwart broeken</t>
+  </si>
+  <si>
+    <t>Fleece-trui</t>
+  </si>
+  <si>
+    <t>Geurvreters</t>
+  </si>
+  <si>
+    <t>Haarband</t>
+  </si>
+  <si>
+    <t>Handschoenen</t>
+  </si>
+  <si>
+    <t>Hemden</t>
+  </si>
+  <si>
+    <t>Hoed</t>
+  </si>
+  <si>
+    <t>Jas</t>
+  </si>
+  <si>
+    <t>Joggingpak</t>
+  </si>
+  <si>
+    <t>Jurken</t>
+  </si>
+  <si>
+    <t>Korte broeken</t>
+  </si>
+  <si>
+    <t>Laarzen</t>
+  </si>
+  <si>
+    <t>Lange broeken</t>
+  </si>
+  <si>
+    <t>Legging</t>
+  </si>
+  <si>
+    <t>Lingerie</t>
+  </si>
+  <si>
+    <t>Moonboots</t>
+  </si>
+  <si>
+    <t>Muts</t>
+  </si>
+  <si>
+    <t>Nette schoenen</t>
+  </si>
+  <si>
+    <t>Onderbroeken</t>
+  </si>
+  <si>
+    <t>Overhemden</t>
+  </si>
+  <si>
+    <t>Panties</t>
+  </si>
+  <si>
+    <t>Pantoffels</t>
+  </si>
+  <si>
+    <t>Pareo</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Poncho</t>
+  </si>
+  <si>
+    <t>Pyjama</t>
+  </si>
+  <si>
+    <t>Regenjack</t>
+  </si>
+  <si>
+    <t>Regenpak</t>
+  </si>
+  <si>
+    <t>Rokken</t>
+  </si>
+  <si>
+    <t>Sandalen</t>
+  </si>
+  <si>
+    <t>Sarong</t>
+  </si>
+  <si>
+    <t>Schoenen</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Sjaal</t>
+  </si>
+  <si>
+    <t>Skihandschoenen</t>
+  </si>
+  <si>
+    <t>Skipak</t>
+  </si>
+  <si>
+    <t>Skischoenen</t>
+  </si>
+  <si>
+    <t>Skisokken</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Slips</t>
+  </si>
+  <si>
+    <t>Sloffen</t>
+  </si>
+  <si>
+    <t>Sokken</t>
+  </si>
+  <si>
+    <t>Spijkerjack</t>
+  </si>
+  <si>
+    <t>Sportschoenen</t>
+  </si>
+  <si>
+    <t>Stringtanga</t>
+  </si>
+  <si>
+    <t>Stropdas</t>
+  </si>
+  <si>
+    <t>Sweaters</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>Thermo-kleding</t>
+  </si>
+  <si>
+    <t>Trainingspak</t>
+  </si>
+  <si>
+    <t>Truien</t>
+  </si>
+  <si>
+    <t>Uitgaanskleding</t>
+  </si>
+  <si>
+    <t>Vest</t>
+  </si>
+  <si>
+    <t>Veters</t>
+  </si>
+  <si>
+    <t>Wandelschoenen</t>
+  </si>
+  <si>
+    <t>Waterschoentjes</t>
+  </si>
+  <si>
+    <t>Windjack</t>
+  </si>
+  <si>
+    <t>Zeilpak</t>
+  </si>
+  <si>
+    <t>Zonnebril</t>
+  </si>
+  <si>
+    <t>Zwembroek</t>
+  </si>
+  <si>
+    <t>Transporter</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>PostNL</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Panalpina</t>
+  </si>
+  <si>
+    <t>DSV</t>
+  </si>
+  <si>
+    <t>CEVA Logistics</t>
+  </si>
+  <si>
+    <t>Nippon Express</t>
+  </si>
+  <si>
+    <t>Maersk</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +2146,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -1924,7 +2171,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -2009,12 +2256,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
@@ -2024,7 +2271,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -2069,7 +2316,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -2184,7 +2431,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -2219,7 +2466,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
@@ -2404,7 +2651,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
@@ -2569,7 +2816,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
@@ -2604,7 +2851,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
@@ -2644,7 +2891,7 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
@@ -3094,7 +3341,7 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
@@ -3289,7 +3536,7 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
@@ -3389,7 +3636,7 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
@@ -3472,7 +3719,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -3537,7 +3784,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3572,7 +3819,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -3692,7 +3939,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
@@ -3859,45 +4106,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C8FFF-B55A-4223-8A3A-B7DB0DBD20CE}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3908,57 +4120,738 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>438</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>468</v>
+      </c>
+      <c r="B33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>480</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>482</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>483</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>485</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>487</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>488</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>489</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>490</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>493</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>494</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>496</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>499</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>500</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>502</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>503</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>504</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>506</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>507</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>508</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>509</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121834CB-7DB5-4DE5-9063-174FC24C506B}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D63B1-6804-41C2-9FA3-A85D1FF405ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F0211-39C6-4E12-AAB1-249C40A77190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="4" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="3" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturer" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
-  <si>
-    <t>Manufacturer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="921">
   <si>
     <t>Nike</t>
   </si>
@@ -58,9 +55,6 @@
     <t>Ziengs</t>
   </si>
   <si>
-    <t>Orderer</t>
-  </si>
-  <si>
     <t>Acne Studios</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>Prada</t>
   </si>
   <si>
-    <t>PT01</t>
-  </si>
-  <si>
     <t>Rains</t>
   </si>
   <si>
@@ -331,18 +322,12 @@
     <t>Won Hundred</t>
   </si>
   <si>
-    <t>Zadig &amp; Voltaire</t>
-  </si>
-  <si>
     <t>Zanone</t>
   </si>
   <si>
     <t>A-dam Underwear</t>
   </si>
   <si>
-    <t>A.P.C.</t>
-  </si>
-  <si>
     <t>Acqua di Parma</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>America Today</t>
   </si>
   <si>
-    <t>Ami</t>
-  </si>
-  <si>
     <t>Amouage</t>
   </si>
   <si>
@@ -550,9 +532,6 @@
     <t>Dockers</t>
   </si>
   <si>
-    <t>DOIY</t>
-  </si>
-  <si>
     <t>ellesse</t>
   </si>
   <si>
@@ -619,9 +598,6 @@
     <t>GUESS</t>
   </si>
   <si>
-    <t>H.J. de Rooy</t>
-  </si>
-  <si>
     <t>Hamilton</t>
   </si>
   <si>
@@ -646,9 +622,6 @@
     <t>Impliva</t>
   </si>
   <si>
-    <t>IZIPIZI</t>
-  </si>
-  <si>
     <t>Jaguar</t>
   </si>
   <si>
@@ -694,9 +667,6 @@
     <t>Lancaster</t>
   </si>
   <si>
-    <t>Larsson &amp; Jennings</t>
-  </si>
-  <si>
     <t>Le Labo</t>
   </si>
   <si>
@@ -712,9 +682,6 @@
     <t>Luxottica</t>
   </si>
   <si>
-    <t>Lyle &amp; Scott</t>
-  </si>
-  <si>
     <t>Mac Fincher</t>
   </si>
   <si>
@@ -793,9 +760,6 @@
     <t>Nobis</t>
   </si>
   <si>
-    <t>Noose&amp;Monkey</t>
-  </si>
-  <si>
     <t>NORR</t>
   </si>
   <si>
@@ -805,12 +769,6 @@
     <t>Odlo</t>
   </si>
   <si>
-    <t>Off-White</t>
-  </si>
-  <si>
-    <t>Oiler &amp; Boiler</t>
-  </si>
-  <si>
     <t>Olaf Hussein</t>
   </si>
   <si>
@@ -835,9 +793,6 @@
     <t>Persol</t>
   </si>
   <si>
-    <t>Pig&amp;Hen</t>
-  </si>
-  <si>
     <t>Piggy Proof</t>
   </si>
   <si>
@@ -859,9 +814,6 @@
     <t>Purewhite</t>
   </si>
   <si>
-    <t>Rag &amp; Bone</t>
-  </si>
-  <si>
     <t>Raymond Weil</t>
   </si>
   <si>
@@ -874,9 +826,6 @@
     <t>Retromarine</t>
   </si>
   <si>
-    <t>Richmond &amp; Finch</t>
-  </si>
-  <si>
     <t>Rituals</t>
   </si>
   <si>
@@ -1024,9 +973,6 @@
     <t>Victorinox</t>
   </si>
   <si>
-    <t>Viktor&amp;Rolf</t>
-  </si>
-  <si>
     <t>Vilebrequin</t>
   </si>
   <si>
@@ -1036,24 +982,12 @@
     <t>Welter Shelter</t>
   </si>
   <si>
-    <t>Y-3</t>
-  </si>
-  <si>
     <t>Yves Delorme</t>
   </si>
   <si>
     <t>Yves Saint Laurent</t>
   </si>
   <si>
-    <t>Z Zegna</t>
-  </si>
-  <si>
-    <t>Zirh</t>
-  </si>
-  <si>
-    <t>Zwilling J.A. Henckels</t>
-  </si>
-  <si>
     <t>C&amp;A</t>
   </si>
   <si>
@@ -1258,9 +1192,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Tumble n Dry</t>
-  </si>
-  <si>
     <t>Lancome</t>
   </si>
   <si>
@@ -1294,9 +1225,6 @@
     <t>Levis</t>
   </si>
   <si>
-    <t>Scotch RBelle</t>
-  </si>
-  <si>
     <t>Bona parte</t>
   </si>
   <si>
@@ -1309,9 +1237,6 @@
     <t>Marc O Polo</t>
   </si>
   <si>
-    <t>Douane</t>
-  </si>
-  <si>
     <t>Douane Amsterdam</t>
   </si>
   <si>
@@ -1561,9 +1486,6 @@
     <t>Zwembroek</t>
   </si>
   <si>
-    <t>Transporter</t>
-  </si>
-  <si>
     <t>TNT</t>
   </si>
   <si>
@@ -1592,6 +1514,1284 @@
   </si>
   <si>
     <t>Maersk</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PartnerID</t>
+  </si>
+  <si>
+    <t>TransID001</t>
+  </si>
+  <si>
+    <t>TransID002</t>
+  </si>
+  <si>
+    <t>TransID003</t>
+  </si>
+  <si>
+    <t>TransID004</t>
+  </si>
+  <si>
+    <t>TransID005</t>
+  </si>
+  <si>
+    <t>TransID006</t>
+  </si>
+  <si>
+    <t>TransID007</t>
+  </si>
+  <si>
+    <t>TransID008</t>
+  </si>
+  <si>
+    <t>TransID009</t>
+  </si>
+  <si>
+    <t>TransID010</t>
+  </si>
+  <si>
+    <t>MID0001</t>
+  </si>
+  <si>
+    <t>MID0002</t>
+  </si>
+  <si>
+    <t>MID0003</t>
+  </si>
+  <si>
+    <t>MID0004</t>
+  </si>
+  <si>
+    <t>MID0005</t>
+  </si>
+  <si>
+    <t>MID0006</t>
+  </si>
+  <si>
+    <t>MID0007</t>
+  </si>
+  <si>
+    <t>MID0008</t>
+  </si>
+  <si>
+    <t>MID0009</t>
+  </si>
+  <si>
+    <t>MID0010</t>
+  </si>
+  <si>
+    <t>MID0011</t>
+  </si>
+  <si>
+    <t>MID0012</t>
+  </si>
+  <si>
+    <t>MID0013</t>
+  </si>
+  <si>
+    <t>MID0014</t>
+  </si>
+  <si>
+    <t>MID0015</t>
+  </si>
+  <si>
+    <t>MID0016</t>
+  </si>
+  <si>
+    <t>MID0017</t>
+  </si>
+  <si>
+    <t>MID0018</t>
+  </si>
+  <si>
+    <t>MID0019</t>
+  </si>
+  <si>
+    <t>MID0020</t>
+  </si>
+  <si>
+    <t>MID0021</t>
+  </si>
+  <si>
+    <t>MID0022</t>
+  </si>
+  <si>
+    <t>MID0023</t>
+  </si>
+  <si>
+    <t>MID0024</t>
+  </si>
+  <si>
+    <t>MID0025</t>
+  </si>
+  <si>
+    <t>MID0026</t>
+  </si>
+  <si>
+    <t>MID0027</t>
+  </si>
+  <si>
+    <t>MID0028</t>
+  </si>
+  <si>
+    <t>MID0029</t>
+  </si>
+  <si>
+    <t>MID0030</t>
+  </si>
+  <si>
+    <t>MID0031</t>
+  </si>
+  <si>
+    <t>MID0032</t>
+  </si>
+  <si>
+    <t>MID0033</t>
+  </si>
+  <si>
+    <t>MID0034</t>
+  </si>
+  <si>
+    <t>MID0035</t>
+  </si>
+  <si>
+    <t>MID0036</t>
+  </si>
+  <si>
+    <t>MID0037</t>
+  </si>
+  <si>
+    <t>MID0038</t>
+  </si>
+  <si>
+    <t>MID0039</t>
+  </si>
+  <si>
+    <t>MID0040</t>
+  </si>
+  <si>
+    <t>MID0041</t>
+  </si>
+  <si>
+    <t>MID0042</t>
+  </si>
+  <si>
+    <t>MID0043</t>
+  </si>
+  <si>
+    <t>MID0044</t>
+  </si>
+  <si>
+    <t>MID0045</t>
+  </si>
+  <si>
+    <t>MID0046</t>
+  </si>
+  <si>
+    <t>MID0047</t>
+  </si>
+  <si>
+    <t>MID0048</t>
+  </si>
+  <si>
+    <t>MID0049</t>
+  </si>
+  <si>
+    <t>MID0050</t>
+  </si>
+  <si>
+    <t>MID0051</t>
+  </si>
+  <si>
+    <t>MID0052</t>
+  </si>
+  <si>
+    <t>MID0053</t>
+  </si>
+  <si>
+    <t>MID0054</t>
+  </si>
+  <si>
+    <t>MID0055</t>
+  </si>
+  <si>
+    <t>MID0056</t>
+  </si>
+  <si>
+    <t>MID0057</t>
+  </si>
+  <si>
+    <t>MID0058</t>
+  </si>
+  <si>
+    <t>MID0059</t>
+  </si>
+  <si>
+    <t>MID0060</t>
+  </si>
+  <si>
+    <t>MID0061</t>
+  </si>
+  <si>
+    <t>MID0062</t>
+  </si>
+  <si>
+    <t>MID0063</t>
+  </si>
+  <si>
+    <t>MID0064</t>
+  </si>
+  <si>
+    <t>MID0065</t>
+  </si>
+  <si>
+    <t>MID0066</t>
+  </si>
+  <si>
+    <t>MID0067</t>
+  </si>
+  <si>
+    <t>MID0068</t>
+  </si>
+  <si>
+    <t>MID0069</t>
+  </si>
+  <si>
+    <t>MID0070</t>
+  </si>
+  <si>
+    <t>MID0071</t>
+  </si>
+  <si>
+    <t>MID0072</t>
+  </si>
+  <si>
+    <t>MID0073</t>
+  </si>
+  <si>
+    <t>MID0074</t>
+  </si>
+  <si>
+    <t>MID0075</t>
+  </si>
+  <si>
+    <t>MID0076</t>
+  </si>
+  <si>
+    <t>MID0077</t>
+  </si>
+  <si>
+    <t>MID0078</t>
+  </si>
+  <si>
+    <t>MID0079</t>
+  </si>
+  <si>
+    <t>MID0080</t>
+  </si>
+  <si>
+    <t>MID0081</t>
+  </si>
+  <si>
+    <t>MID0082</t>
+  </si>
+  <si>
+    <t>MID0083</t>
+  </si>
+  <si>
+    <t>MID0084</t>
+  </si>
+  <si>
+    <t>MID0085</t>
+  </si>
+  <si>
+    <t>MID0086</t>
+  </si>
+  <si>
+    <t>MID0087</t>
+  </si>
+  <si>
+    <t>MID0088</t>
+  </si>
+  <si>
+    <t>MID0089</t>
+  </si>
+  <si>
+    <t>MID0090</t>
+  </si>
+  <si>
+    <t>MID0091</t>
+  </si>
+  <si>
+    <t>MID0092</t>
+  </si>
+  <si>
+    <t>MID0093</t>
+  </si>
+  <si>
+    <t>MID0094</t>
+  </si>
+  <si>
+    <t>MID0095</t>
+  </si>
+  <si>
+    <t>MID0096</t>
+  </si>
+  <si>
+    <t>MID0097</t>
+  </si>
+  <si>
+    <t>MID0098</t>
+  </si>
+  <si>
+    <t>MID0099</t>
+  </si>
+  <si>
+    <t>MID0100</t>
+  </si>
+  <si>
+    <t>MID0101</t>
+  </si>
+  <si>
+    <t>MID0102</t>
+  </si>
+  <si>
+    <t>MID0103</t>
+  </si>
+  <si>
+    <t>MID0104</t>
+  </si>
+  <si>
+    <t>MID0105</t>
+  </si>
+  <si>
+    <t>MID0106</t>
+  </si>
+  <si>
+    <t>MID0107</t>
+  </si>
+  <si>
+    <t>MID0108</t>
+  </si>
+  <si>
+    <t>MID0109</t>
+  </si>
+  <si>
+    <t>MID0110</t>
+  </si>
+  <si>
+    <t>MID0111</t>
+  </si>
+  <si>
+    <t>MID0112</t>
+  </si>
+  <si>
+    <t>MID0113</t>
+  </si>
+  <si>
+    <t>MID0114</t>
+  </si>
+  <si>
+    <t>MID0115</t>
+  </si>
+  <si>
+    <t>MID0116</t>
+  </si>
+  <si>
+    <t>MID0117</t>
+  </si>
+  <si>
+    <t>MID0118</t>
+  </si>
+  <si>
+    <t>MID0119</t>
+  </si>
+  <si>
+    <t>MID0120</t>
+  </si>
+  <si>
+    <t>MID0121</t>
+  </si>
+  <si>
+    <t>MID0122</t>
+  </si>
+  <si>
+    <t>MID0123</t>
+  </si>
+  <si>
+    <t>MID0124</t>
+  </si>
+  <si>
+    <t>MID0125</t>
+  </si>
+  <si>
+    <t>MID0126</t>
+  </si>
+  <si>
+    <t>MID0127</t>
+  </si>
+  <si>
+    <t>MID0128</t>
+  </si>
+  <si>
+    <t>MID0129</t>
+  </si>
+  <si>
+    <t>MID0130</t>
+  </si>
+  <si>
+    <t>MID0131</t>
+  </si>
+  <si>
+    <t>MID0132</t>
+  </si>
+  <si>
+    <t>MID0133</t>
+  </si>
+  <si>
+    <t>MID0134</t>
+  </si>
+  <si>
+    <t>MID0135</t>
+  </si>
+  <si>
+    <t>MID0136</t>
+  </si>
+  <si>
+    <t>MID0137</t>
+  </si>
+  <si>
+    <t>MID0138</t>
+  </si>
+  <si>
+    <t>MID0139</t>
+  </si>
+  <si>
+    <t>MID0140</t>
+  </si>
+  <si>
+    <t>MID0141</t>
+  </si>
+  <si>
+    <t>MID0142</t>
+  </si>
+  <si>
+    <t>MID0143</t>
+  </si>
+  <si>
+    <t>MID0144</t>
+  </si>
+  <si>
+    <t>MID0145</t>
+  </si>
+  <si>
+    <t>MID0146</t>
+  </si>
+  <si>
+    <t>MID0147</t>
+  </si>
+  <si>
+    <t>MID0148</t>
+  </si>
+  <si>
+    <t>MID0149</t>
+  </si>
+  <si>
+    <t>MID0150</t>
+  </si>
+  <si>
+    <t>MID0151</t>
+  </si>
+  <si>
+    <t>MID0152</t>
+  </si>
+  <si>
+    <t>MID0153</t>
+  </si>
+  <si>
+    <t>MID0154</t>
+  </si>
+  <si>
+    <t>MID0155</t>
+  </si>
+  <si>
+    <t>MID0156</t>
+  </si>
+  <si>
+    <t>MID0157</t>
+  </si>
+  <si>
+    <t>MID0158</t>
+  </si>
+  <si>
+    <t>MID0159</t>
+  </si>
+  <si>
+    <t>MID0160</t>
+  </si>
+  <si>
+    <t>MID0161</t>
+  </si>
+  <si>
+    <t>MID0162</t>
+  </si>
+  <si>
+    <t>MID0163</t>
+  </si>
+  <si>
+    <t>MID0164</t>
+  </si>
+  <si>
+    <t>MID0165</t>
+  </si>
+  <si>
+    <t>MID0166</t>
+  </si>
+  <si>
+    <t>MID0167</t>
+  </si>
+  <si>
+    <t>MID0168</t>
+  </si>
+  <si>
+    <t>MID0169</t>
+  </si>
+  <si>
+    <t>MID0170</t>
+  </si>
+  <si>
+    <t>MID0171</t>
+  </si>
+  <si>
+    <t>MID0172</t>
+  </si>
+  <si>
+    <t>MID0173</t>
+  </si>
+  <si>
+    <t>MID0174</t>
+  </si>
+  <si>
+    <t>MID0175</t>
+  </si>
+  <si>
+    <t>MID0176</t>
+  </si>
+  <si>
+    <t>MID0177</t>
+  </si>
+  <si>
+    <t>MID0178</t>
+  </si>
+  <si>
+    <t>MID0179</t>
+  </si>
+  <si>
+    <t>MID0180</t>
+  </si>
+  <si>
+    <t>MID0181</t>
+  </si>
+  <si>
+    <t>MID0182</t>
+  </si>
+  <si>
+    <t>MID0183</t>
+  </si>
+  <si>
+    <t>MID0184</t>
+  </si>
+  <si>
+    <t>MID0185</t>
+  </si>
+  <si>
+    <t>MID0186</t>
+  </si>
+  <si>
+    <t>MID0187</t>
+  </si>
+  <si>
+    <t>MID0188</t>
+  </si>
+  <si>
+    <t>MID0189</t>
+  </si>
+  <si>
+    <t>MID0190</t>
+  </si>
+  <si>
+    <t>MID0191</t>
+  </si>
+  <si>
+    <t>MID0192</t>
+  </si>
+  <si>
+    <t>MID0193</t>
+  </si>
+  <si>
+    <t>MID0194</t>
+  </si>
+  <si>
+    <t>MID0195</t>
+  </si>
+  <si>
+    <t>MID0196</t>
+  </si>
+  <si>
+    <t>MID0197</t>
+  </si>
+  <si>
+    <t>MID0198</t>
+  </si>
+  <si>
+    <t>MID0199</t>
+  </si>
+  <si>
+    <t>MID0200</t>
+  </si>
+  <si>
+    <t>MID0201</t>
+  </si>
+  <si>
+    <t>MID0202</t>
+  </si>
+  <si>
+    <t>MID0203</t>
+  </si>
+  <si>
+    <t>MID0204</t>
+  </si>
+  <si>
+    <t>MID0205</t>
+  </si>
+  <si>
+    <t>MID0206</t>
+  </si>
+  <si>
+    <t>MID0207</t>
+  </si>
+  <si>
+    <t>MID0208</t>
+  </si>
+  <si>
+    <t>MID0209</t>
+  </si>
+  <si>
+    <t>MID0210</t>
+  </si>
+  <si>
+    <t>MID0211</t>
+  </si>
+  <si>
+    <t>MID0212</t>
+  </si>
+  <si>
+    <t>MID0213</t>
+  </si>
+  <si>
+    <t>MID0214</t>
+  </si>
+  <si>
+    <t>MID0215</t>
+  </si>
+  <si>
+    <t>MID0216</t>
+  </si>
+  <si>
+    <t>MID0217</t>
+  </si>
+  <si>
+    <t>MID0218</t>
+  </si>
+  <si>
+    <t>MID0219</t>
+  </si>
+  <si>
+    <t>MID0220</t>
+  </si>
+  <si>
+    <t>MID0221</t>
+  </si>
+  <si>
+    <t>MID0222</t>
+  </si>
+  <si>
+    <t>MID0223</t>
+  </si>
+  <si>
+    <t>MID0224</t>
+  </si>
+  <si>
+    <t>MID0225</t>
+  </si>
+  <si>
+    <t>MID0226</t>
+  </si>
+  <si>
+    <t>MID0227</t>
+  </si>
+  <si>
+    <t>MID0228</t>
+  </si>
+  <si>
+    <t>MID0229</t>
+  </si>
+  <si>
+    <t>MID0230</t>
+  </si>
+  <si>
+    <t>MID0231</t>
+  </si>
+  <si>
+    <t>MID0232</t>
+  </si>
+  <si>
+    <t>MID0233</t>
+  </si>
+  <si>
+    <t>MID0234</t>
+  </si>
+  <si>
+    <t>MID0235</t>
+  </si>
+  <si>
+    <t>MID0236</t>
+  </si>
+  <si>
+    <t>MID0237</t>
+  </si>
+  <si>
+    <t>MID0238</t>
+  </si>
+  <si>
+    <t>MID0239</t>
+  </si>
+  <si>
+    <t>MID0240</t>
+  </si>
+  <si>
+    <t>MID0241</t>
+  </si>
+  <si>
+    <t>MID0242</t>
+  </si>
+  <si>
+    <t>MID0243</t>
+  </si>
+  <si>
+    <t>MID0244</t>
+  </si>
+  <si>
+    <t>MID0245</t>
+  </si>
+  <si>
+    <t>MID0246</t>
+  </si>
+  <si>
+    <t>MID0247</t>
+  </si>
+  <si>
+    <t>MID0248</t>
+  </si>
+  <si>
+    <t>MID0249</t>
+  </si>
+  <si>
+    <t>MID0250</t>
+  </si>
+  <si>
+    <t>MID0251</t>
+  </si>
+  <si>
+    <t>MID0252</t>
+  </si>
+  <si>
+    <t>MID0253</t>
+  </si>
+  <si>
+    <t>MID0254</t>
+  </si>
+  <si>
+    <t>MID0255</t>
+  </si>
+  <si>
+    <t>MID0256</t>
+  </si>
+  <si>
+    <t>MID0257</t>
+  </si>
+  <si>
+    <t>MID0258</t>
+  </si>
+  <si>
+    <t>MID0259</t>
+  </si>
+  <si>
+    <t>MID0260</t>
+  </si>
+  <si>
+    <t>MID0261</t>
+  </si>
+  <si>
+    <t>MID0262</t>
+  </si>
+  <si>
+    <t>MID0263</t>
+  </si>
+  <si>
+    <t>MID0264</t>
+  </si>
+  <si>
+    <t>MID0265</t>
+  </si>
+  <si>
+    <t>MID0266</t>
+  </si>
+  <si>
+    <t>MID0267</t>
+  </si>
+  <si>
+    <t>MID0268</t>
+  </si>
+  <si>
+    <t>MID0269</t>
+  </si>
+  <si>
+    <t>MID0270</t>
+  </si>
+  <si>
+    <t>MID0271</t>
+  </si>
+  <si>
+    <t>MID0272</t>
+  </si>
+  <si>
+    <t>MID0273</t>
+  </si>
+  <si>
+    <t>MID0274</t>
+  </si>
+  <si>
+    <t>MID0275</t>
+  </si>
+  <si>
+    <t>MID0276</t>
+  </si>
+  <si>
+    <t>MID0277</t>
+  </si>
+  <si>
+    <t>MID0278</t>
+  </si>
+  <si>
+    <t>MID0279</t>
+  </si>
+  <si>
+    <t>MID0280</t>
+  </si>
+  <si>
+    <t>MID0281</t>
+  </si>
+  <si>
+    <t>MID0282</t>
+  </si>
+  <si>
+    <t>MID0283</t>
+  </si>
+  <si>
+    <t>MID0284</t>
+  </si>
+  <si>
+    <t>MID0285</t>
+  </si>
+  <si>
+    <t>MID0286</t>
+  </si>
+  <si>
+    <t>MID0287</t>
+  </si>
+  <si>
+    <t>MID0288</t>
+  </si>
+  <si>
+    <t>MID0289</t>
+  </si>
+  <si>
+    <t>MID0290</t>
+  </si>
+  <si>
+    <t>MID0291</t>
+  </si>
+  <si>
+    <t>MID0292</t>
+  </si>
+  <si>
+    <t>MID0293</t>
+  </si>
+  <si>
+    <t>MID0294</t>
+  </si>
+  <si>
+    <t>MID0295</t>
+  </si>
+  <si>
+    <t>MID0296</t>
+  </si>
+  <si>
+    <t>MID0297</t>
+  </si>
+  <si>
+    <t>MID0298</t>
+  </si>
+  <si>
+    <t>MID0299</t>
+  </si>
+  <si>
+    <t>MID0300</t>
+  </si>
+  <si>
+    <t>MID0301</t>
+  </si>
+  <si>
+    <t>MID0302</t>
+  </si>
+  <si>
+    <t>MID0303</t>
+  </si>
+  <si>
+    <t>MID0304</t>
+  </si>
+  <si>
+    <t>MID0305</t>
+  </si>
+  <si>
+    <t>MID0306</t>
+  </si>
+  <si>
+    <t>MID0307</t>
+  </si>
+  <si>
+    <t>MID0308</t>
+  </si>
+  <si>
+    <t>MID0309</t>
+  </si>
+  <si>
+    <t>MID0310</t>
+  </si>
+  <si>
+    <t>MID0311</t>
+  </si>
+  <si>
+    <t>MID0312</t>
+  </si>
+  <si>
+    <t>MID0313</t>
+  </si>
+  <si>
+    <t>MID0314</t>
+  </si>
+  <si>
+    <t>MID0315</t>
+  </si>
+  <si>
+    <t>MID0316</t>
+  </si>
+  <si>
+    <t>MID0317</t>
+  </si>
+  <si>
+    <t>MID0318</t>
+  </si>
+  <si>
+    <t>MID0319</t>
+  </si>
+  <si>
+    <t>MID0320</t>
+  </si>
+  <si>
+    <t>MID0321</t>
+  </si>
+  <si>
+    <t>MID0322</t>
+  </si>
+  <si>
+    <t>MID0323</t>
+  </si>
+  <si>
+    <t>Zegna</t>
+  </si>
+  <si>
+    <t>OrdererID0001</t>
+  </si>
+  <si>
+    <t>OrdererID0002</t>
+  </si>
+  <si>
+    <t>OrdererID0003</t>
+  </si>
+  <si>
+    <t>OrdererID0004</t>
+  </si>
+  <si>
+    <t>OrdererID0005</t>
+  </si>
+  <si>
+    <t>OrdererID0006</t>
+  </si>
+  <si>
+    <t>OrdererID0007</t>
+  </si>
+  <si>
+    <t>OrdererID0008</t>
+  </si>
+  <si>
+    <t>OrdererID0009</t>
+  </si>
+  <si>
+    <t>OrdererID0010</t>
+  </si>
+  <si>
+    <t>OrdererID0011</t>
+  </si>
+  <si>
+    <t>OrdererID0012</t>
+  </si>
+  <si>
+    <t>OrdererID0013</t>
+  </si>
+  <si>
+    <t>OrdererID0014</t>
+  </si>
+  <si>
+    <t>OrdererID0015</t>
+  </si>
+  <si>
+    <t>OrdererID0016</t>
+  </si>
+  <si>
+    <t>OrdererID0017</t>
+  </si>
+  <si>
+    <t>OrdererID0018</t>
+  </si>
+  <si>
+    <t>OrdererID0019</t>
+  </si>
+  <si>
+    <t>OrdererID0020</t>
+  </si>
+  <si>
+    <t>OrdererID0021</t>
+  </si>
+  <si>
+    <t>OrdererID0022</t>
+  </si>
+  <si>
+    <t>OrdererID0023</t>
+  </si>
+  <si>
+    <t>OrdererID0024</t>
+  </si>
+  <si>
+    <t>OrdererID0025</t>
+  </si>
+  <si>
+    <t>OrdererID0026</t>
+  </si>
+  <si>
+    <t>OrdererID0027</t>
+  </si>
+  <si>
+    <t>OrdererID0028</t>
+  </si>
+  <si>
+    <t>OrdererID0029</t>
+  </si>
+  <si>
+    <t>OrdererID0030</t>
+  </si>
+  <si>
+    <t>OrdererID0031</t>
+  </si>
+  <si>
+    <t>OrdererID0032</t>
+  </si>
+  <si>
+    <t>OrdererID0033</t>
+  </si>
+  <si>
+    <t>OrdererID0034</t>
+  </si>
+  <si>
+    <t>OrdererID0035</t>
+  </si>
+  <si>
+    <t>OrdererID0036</t>
+  </si>
+  <si>
+    <t>OrdererID0037</t>
+  </si>
+  <si>
+    <t>OrdererID0038</t>
+  </si>
+  <si>
+    <t>OrdererID0039</t>
+  </si>
+  <si>
+    <t>OrdererID0040</t>
+  </si>
+  <si>
+    <t>OrdererID0041</t>
+  </si>
+  <si>
+    <t>OrdererID0042</t>
+  </si>
+  <si>
+    <t>OrdererID0043</t>
+  </si>
+  <si>
+    <t>OrdererID0044</t>
+  </si>
+  <si>
+    <t>OrdererID0045</t>
+  </si>
+  <si>
+    <t>OrdererID0046</t>
+  </si>
+  <si>
+    <t>OrdererID0047</t>
+  </si>
+  <si>
+    <t>OrdererID0048</t>
+  </si>
+  <si>
+    <t>OrdererID0049</t>
+  </si>
+  <si>
+    <t>OrdererID0050</t>
+  </si>
+  <si>
+    <t>OrdererID0051</t>
+  </si>
+  <si>
+    <t>OrdererID0052</t>
+  </si>
+  <si>
+    <t>OrdererID0053</t>
+  </si>
+  <si>
+    <t>OrdererID0054</t>
+  </si>
+  <si>
+    <t>OrdererID0055</t>
+  </si>
+  <si>
+    <t>OrdererID0056</t>
+  </si>
+  <si>
+    <t>OrdererID0057</t>
+  </si>
+  <si>
+    <t>OrdererID0058</t>
+  </si>
+  <si>
+    <t>OrdererID0059</t>
+  </si>
+  <si>
+    <t>OrdererID0060</t>
+  </si>
+  <si>
+    <t>OrdererID0061</t>
+  </si>
+  <si>
+    <t>OrdererID0062</t>
+  </si>
+  <si>
+    <t>OrdererID0063</t>
+  </si>
+  <si>
+    <t>OrdererID0064</t>
+  </si>
+  <si>
+    <t>OrdererID0065</t>
+  </si>
+  <si>
+    <t>OrdererID0066</t>
+  </si>
+  <si>
+    <t>OrdererID0067</t>
+  </si>
+  <si>
+    <t>OrdererID0068</t>
+  </si>
+  <si>
+    <t>OrdererID0069</t>
+  </si>
+  <si>
+    <t>OrdererID0070</t>
+  </si>
+  <si>
+    <t>OrdererID0071</t>
+  </si>
+  <si>
+    <t>OrdererID0072</t>
+  </si>
+  <si>
+    <t>OrdererID0073</t>
+  </si>
+  <si>
+    <t>OrdererID0074</t>
+  </si>
+  <si>
+    <t>OrdererID0075</t>
+  </si>
+  <si>
+    <t>OrdererID0076</t>
+  </si>
+  <si>
+    <t>OrdererID0077</t>
+  </si>
+  <si>
+    <t>OrdererID0078</t>
+  </si>
+  <si>
+    <t>OrdererID0079</t>
+  </si>
+  <si>
+    <t>DID00001</t>
+  </si>
+  <si>
+    <t>DID00002</t>
+  </si>
+  <si>
+    <t>DID00003</t>
+  </si>
+  <si>
+    <t>DID00004</t>
+  </si>
+  <si>
+    <t>DID00005</t>
+  </si>
+  <si>
+    <t>DID00006</t>
+  </si>
+  <si>
+    <t>DID00007</t>
+  </si>
+  <si>
+    <t>DID00008</t>
+  </si>
+  <si>
+    <t>DID00009</t>
+  </si>
+  <si>
+    <t>DID00010</t>
+  </si>
+  <si>
+    <t>Creator</t>
   </si>
 </sst>
 </file>
@@ -1943,1740 +3143,2607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
-  <dimension ref="A1:A345"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B40" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B53" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B54" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B55" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B56" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B57" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B58" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B70" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B75" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B78" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B87" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B90" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B91" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B101" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="B105" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B110" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B115" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B116" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B117" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B118" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B123" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B124" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B126" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B128" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B129" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B131" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B147" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B148" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B151" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B152" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B153" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B154" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B155" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B156" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B157" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B160" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B161" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>211</v>
+      </c>
+      <c r="B167" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>387</v>
+      </c>
+      <c r="B168" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>213</v>
+      </c>
+      <c r="B172" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>397</v>
+      </c>
+      <c r="B174" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B175" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B176" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B177" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B178" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B179" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B183" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B185" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B186" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B187" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="B188" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="B189" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B190" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B192" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B193" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B194" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>231</v>
+      </c>
+      <c r="B195" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>232</v>
+      </c>
+      <c r="B196" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>233</v>
+      </c>
+      <c r="B197" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>234</v>
+      </c>
+      <c r="B198" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>235</v>
+      </c>
+      <c r="B199" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>236</v>
+      </c>
+      <c r="B200" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>237</v>
+      </c>
+      <c r="B201" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>238</v>
+      </c>
+      <c r="B202" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="B203" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>239</v>
+      </c>
+      <c r="B204" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="B205" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="B207" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="B209" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>60</v>
+      </c>
+      <c r="B210" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B211" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B212" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="B213" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>61</v>
+      </c>
+      <c r="B214" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="B216" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="B217" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="B219" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>64</v>
+      </c>
+      <c r="B220" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="B222" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B223" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="B224" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>66</v>
+      </c>
+      <c r="B225" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="B226" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B227" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="B228" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>67</v>
+      </c>
+      <c r="B229" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>69</v>
+      </c>
+      <c r="B230" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>68</v>
+      </c>
+      <c r="B231" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="B232" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="B233" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="B234" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="B235" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>70</v>
+      </c>
+      <c r="B236" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>71</v>
+      </c>
+      <c r="B237" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B238" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B239" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="B240" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>73</v>
+      </c>
+      <c r="B242" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B244" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>76</v>
+      </c>
+      <c r="B246" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="B247" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="B248" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>77</v>
+      </c>
+      <c r="B249" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B250" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B251" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B252" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B253" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>79</v>
+      </c>
+      <c r="B254" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B255" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B256" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>80</v>
+      </c>
+      <c r="B257" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>81</v>
+      </c>
+      <c r="B258" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>82</v>
+      </c>
+      <c r="B259" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B260" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B261" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>83</v>
+      </c>
+      <c r="B262" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B263" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B264" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="B265" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="B266" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="B267" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="B268" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="B269" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="B270" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="B271" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="B272" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="B273" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="B274" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="B275" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="B276" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="B277" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>287</v>
+      </c>
+      <c r="B278" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>288</v>
+      </c>
+      <c r="B279" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>289</v>
+      </c>
+      <c r="B280" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>290</v>
+      </c>
+      <c r="B281" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>291</v>
+      </c>
+      <c r="B282" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>293</v>
+      </c>
+      <c r="B284" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>294</v>
+      </c>
+      <c r="B285" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>295</v>
+      </c>
+      <c r="B286" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="B288" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="B289" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="B290" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="B291" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>87</v>
+      </c>
+      <c r="B292" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="B293" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="B294" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>88</v>
+      </c>
+      <c r="B295" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="B296" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="B298" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="B299" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>90</v>
+      </c>
+      <c r="B300" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>91</v>
+      </c>
+      <c r="B301" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="B302" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="B303" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="B304" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>92</v>
+      </c>
+      <c r="B305" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>93</v>
+      </c>
+      <c r="B306" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>94</v>
+      </c>
+      <c r="B307" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="B308" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="B309" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="B310" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="B311" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="B312" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="B313" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>95</v>
+      </c>
+      <c r="B314" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="B315" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="B316" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="B317" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="B318" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>96</v>
+      </c>
+      <c r="B319" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>386</v>
+      </c>
+      <c r="B320" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B321" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>830</v>
+      </c>
+      <c r="B323" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>340</v>
+      <c r="B324" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -3686,415 +5753,656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBAF63-11C6-4E85-926A-7576D04BFACD}">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B34" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B36" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B37" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B40" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B42" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B43" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B45" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B46" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B48" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B50" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B52" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B53" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B54" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B55" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B57" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B58" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B59" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B63" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B64" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B66" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B67" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B68" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B69" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B71" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B72" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B73" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B76" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>404</v>
+      <c r="B80" t="s">
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -4107,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C8FFF-B55A-4223-8A3A-B7DB0DBD20CE}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4118,59 +6426,92 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="B3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -4180,10 +6521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4192,129 +6533,132 @@
     <col min="2" max="2" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="C1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B2">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="B5">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B6">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="B7">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B8">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="B9">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B10">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B11">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="B12">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="B15">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B16">
         <v>55</v>
@@ -4322,7 +6666,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B17">
         <v>57</v>
@@ -4330,7 +6674,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="B18">
         <v>58</v>
@@ -4338,7 +6682,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B19">
         <v>60</v>
@@ -4346,7 +6690,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="B20">
         <v>61</v>
@@ -4354,7 +6698,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B21">
         <v>63</v>
@@ -4362,7 +6706,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="B22">
         <v>65</v>
@@ -4370,7 +6714,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="B23">
         <v>66</v>
@@ -4378,7 +6722,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="B24">
         <v>68</v>
@@ -4386,7 +6730,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B25">
         <v>69</v>
@@ -4394,7 +6738,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="B26">
         <v>71</v>
@@ -4402,7 +6746,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="B27">
         <v>72</v>
@@ -4410,7 +6754,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="B28">
         <v>74</v>
@@ -4418,7 +6762,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="B29">
         <v>76</v>
@@ -4426,7 +6770,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B30">
         <v>77</v>
@@ -4434,7 +6778,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B31">
         <v>79</v>
@@ -4442,7 +6786,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B32">
         <v>80</v>
@@ -4450,7 +6794,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B33">
         <v>82</v>
@@ -4458,7 +6802,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B34">
         <v>84</v>
@@ -4466,7 +6810,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B35">
         <v>85</v>
@@ -4474,7 +6818,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B36">
         <v>87</v>
@@ -4482,7 +6826,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B37">
         <v>88</v>
@@ -4490,7 +6834,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -4498,7 +6842,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B39">
         <v>91</v>
@@ -4506,7 +6850,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B40">
         <v>93</v>
@@ -4514,7 +6858,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="B41">
         <v>95</v>
@@ -4522,7 +6866,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="B42">
         <v>96</v>
@@ -4530,7 +6874,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B43">
         <v>98</v>
@@ -4538,7 +6882,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="B44">
         <v>99</v>
@@ -4546,7 +6890,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -4554,7 +6898,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -4562,7 +6906,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -4570,7 +6914,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -4578,7 +6922,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -4586,7 +6930,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -4594,7 +6938,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -4602,7 +6946,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="B52">
         <v>13</v>
@@ -4610,7 +6954,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -4618,7 +6962,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -4626,7 +6970,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="B55">
         <v>15</v>
@@ -4634,7 +6978,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -4642,7 +6986,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -4650,7 +6994,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B58">
         <v>22</v>
@@ -4658,7 +7002,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -4666,7 +7010,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -4674,7 +7018,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="B61">
         <v>58</v>
@@ -4682,7 +7026,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -4690,7 +7034,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B63">
         <v>56</v>
@@ -4698,7 +7042,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="B64">
         <v>11</v>
@@ -4706,7 +7050,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -4714,7 +7058,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4722,7 +7066,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B67">
         <v>11</v>
@@ -4730,7 +7074,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -4738,7 +7082,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B69">
         <v>85</v>
@@ -4746,7 +7090,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="B70">
         <v>11</v>
@@ -4754,7 +7098,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="B71">
         <v>11</v>
@@ -4762,7 +7106,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -4770,7 +7114,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4778,7 +7122,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -4791,67 +7135,104 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121834CB-7DB5-4DE5-9063-174FC24C506B}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="B2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="B8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>494</v>
+      </c>
+      <c r="B11" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F0211-39C6-4E12-AAB1-249C40A77190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCA278-406F-48F4-BF30-4E6AC9185B47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="3" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1069">
   <si>
     <t>Nike</t>
   </si>
@@ -2792,16 +2792,468 @@
   </si>
   <si>
     <t>Creator</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductID0001</t>
+  </si>
+  <si>
+    <t>ProductID0002</t>
+  </si>
+  <si>
+    <t>ProductID0003</t>
+  </si>
+  <si>
+    <t>ProductID0004</t>
+  </si>
+  <si>
+    <t>ProductID0005</t>
+  </si>
+  <si>
+    <t>ProductID0006</t>
+  </si>
+  <si>
+    <t>ProductID0007</t>
+  </si>
+  <si>
+    <t>ProductID0008</t>
+  </si>
+  <si>
+    <t>ProductID0009</t>
+  </si>
+  <si>
+    <t>ProductID0010</t>
+  </si>
+  <si>
+    <t>ProductID0011</t>
+  </si>
+  <si>
+    <t>ProductID0012</t>
+  </si>
+  <si>
+    <t>ProductID0013</t>
+  </si>
+  <si>
+    <t>ProductID0014</t>
+  </si>
+  <si>
+    <t>ProductID0015</t>
+  </si>
+  <si>
+    <t>ProductID0016</t>
+  </si>
+  <si>
+    <t>ProductID0017</t>
+  </si>
+  <si>
+    <t>ProductID0018</t>
+  </si>
+  <si>
+    <t>ProductID0019</t>
+  </si>
+  <si>
+    <t>ProductID0020</t>
+  </si>
+  <si>
+    <t>ProductID0021</t>
+  </si>
+  <si>
+    <t>ProductID0022</t>
+  </si>
+  <si>
+    <t>ProductID0023</t>
+  </si>
+  <si>
+    <t>ProductID0024</t>
+  </si>
+  <si>
+    <t>ProductID0025</t>
+  </si>
+  <si>
+    <t>ProductID0026</t>
+  </si>
+  <si>
+    <t>ProductID0027</t>
+  </si>
+  <si>
+    <t>ProductID0028</t>
+  </si>
+  <si>
+    <t>ProductID0029</t>
+  </si>
+  <si>
+    <t>ProductID0030</t>
+  </si>
+  <si>
+    <t>ProductID0031</t>
+  </si>
+  <si>
+    <t>ProductID0032</t>
+  </si>
+  <si>
+    <t>ProductID0033</t>
+  </si>
+  <si>
+    <t>ProductID0034</t>
+  </si>
+  <si>
+    <t>ProductID0035</t>
+  </si>
+  <si>
+    <t>ProductID0036</t>
+  </si>
+  <si>
+    <t>ProductID0037</t>
+  </si>
+  <si>
+    <t>ProductID0038</t>
+  </si>
+  <si>
+    <t>ProductID0039</t>
+  </si>
+  <si>
+    <t>ProductID0040</t>
+  </si>
+  <si>
+    <t>ProductID0041</t>
+  </si>
+  <si>
+    <t>ProductID0042</t>
+  </si>
+  <si>
+    <t>ProductID0043</t>
+  </si>
+  <si>
+    <t>ProductID0044</t>
+  </si>
+  <si>
+    <t>ProductID0045</t>
+  </si>
+  <si>
+    <t>ProductID0046</t>
+  </si>
+  <si>
+    <t>ProductID0047</t>
+  </si>
+  <si>
+    <t>ProductID0048</t>
+  </si>
+  <si>
+    <t>ProductID0049</t>
+  </si>
+  <si>
+    <t>ProductID0050</t>
+  </si>
+  <si>
+    <t>ProductID0051</t>
+  </si>
+  <si>
+    <t>ProductID0052</t>
+  </si>
+  <si>
+    <t>ProductID0053</t>
+  </si>
+  <si>
+    <t>ProductID0054</t>
+  </si>
+  <si>
+    <t>ProductID0055</t>
+  </si>
+  <si>
+    <t>ProductID0056</t>
+  </si>
+  <si>
+    <t>ProductID0057</t>
+  </si>
+  <si>
+    <t>ProductID0058</t>
+  </si>
+  <si>
+    <t>ProductID0059</t>
+  </si>
+  <si>
+    <t>ProductID0060</t>
+  </si>
+  <si>
+    <t>ProductID0061</t>
+  </si>
+  <si>
+    <t>ProductID0062</t>
+  </si>
+  <si>
+    <t>ProductID0063</t>
+  </si>
+  <si>
+    <t>ProductID0064</t>
+  </si>
+  <si>
+    <t>ProductID0065</t>
+  </si>
+  <si>
+    <t>ProductID0066</t>
+  </si>
+  <si>
+    <t>ProductID0067</t>
+  </si>
+  <si>
+    <t>ProductID0068</t>
+  </si>
+  <si>
+    <t>ProductID0069</t>
+  </si>
+  <si>
+    <t>ProductID0070</t>
+  </si>
+  <si>
+    <t>ProductID0071</t>
+  </si>
+  <si>
+    <t>ProductID0072</t>
+  </si>
+  <si>
+    <t>ProductID0073</t>
+  </si>
+  <si>
+    <t>EnforcementDBUrl</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0001</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0002</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0003</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0004</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0005</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0006</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0007</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0008</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0009</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0010</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0011</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0012</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0013</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0014</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0015</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0016</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0017</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0018</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0019</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0020</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0021</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0022</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0023</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0024</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0025</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0026</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0027</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0028</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0029</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0030</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0031</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0032</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0033</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0034</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0035</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0036</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0037</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0038</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0039</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0040</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0041</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0042</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0043</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0044</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0045</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0046</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0047</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0048</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0049</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0050</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0051</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0052</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0053</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0054</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0055</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0056</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0057</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0058</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0059</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0060</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0061</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0062</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0063</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0064</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0065</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0066</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0067</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0068</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0069</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0070</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0071</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0072</t>
+  </si>
+  <si>
+    <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0073</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2824,13 +3276,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3145,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
   <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6521,614 +6976,1283 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" t="s">
         <v>383</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>384</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B2" t="s">
         <v>412</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B3" t="s">
         <v>413</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" t="s">
         <v>414</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B5" t="s">
         <v>415</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B6" t="s">
         <v>416</v>
       </c>
-      <c r="B6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B7" t="s">
         <v>417</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B8" t="s">
         <v>418</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B9" t="s">
         <v>419</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>930</v>
+      </c>
+      <c r="B10" t="s">
         <v>420</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B11" t="s">
         <v>421</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B12" t="s">
         <v>422</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B13" t="s">
         <v>423</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E13" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" t="s">
         <v>424</v>
       </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>935</v>
+      </c>
+      <c r="B15" t="s">
         <v>425</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" t="s">
         <v>426</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>937</v>
+      </c>
+      <c r="B17" t="s">
         <v>427</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" t="s">
         <v>428</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>939</v>
+      </c>
+      <c r="B19" t="s">
         <v>429</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>940</v>
+      </c>
+      <c r="B20" t="s">
         <v>430</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>941</v>
+      </c>
+      <c r="B21" t="s">
         <v>431</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>942</v>
+      </c>
+      <c r="B22" t="s">
         <v>432</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E22" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>943</v>
+      </c>
+      <c r="B23" t="s">
         <v>433</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>944</v>
+      </c>
+      <c r="B24" t="s">
         <v>434</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>945</v>
+      </c>
+      <c r="B25" t="s">
         <v>435</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>946</v>
+      </c>
+      <c r="B26" t="s">
         <v>436</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>947</v>
+      </c>
+      <c r="B27" t="s">
         <v>437</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>948</v>
+      </c>
+      <c r="B28" t="s">
         <v>438</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>949</v>
+      </c>
+      <c r="B29" t="s">
         <v>439</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>950</v>
+      </c>
+      <c r="B30" t="s">
         <v>440</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>951</v>
+      </c>
+      <c r="B31" t="s">
         <v>441</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" t="s">
         <v>442</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>953</v>
+      </c>
+      <c r="B33" t="s">
         <v>443</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>954</v>
+      </c>
+      <c r="B34" t="s">
         <v>444</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>955</v>
+      </c>
+      <c r="B35" t="s">
         <v>445</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>956</v>
+      </c>
+      <c r="B36" t="s">
         <v>446</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>957</v>
+      </c>
+      <c r="B37" t="s">
         <v>447</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>958</v>
+      </c>
+      <c r="B38" t="s">
         <v>448</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>959</v>
+      </c>
+      <c r="B39" t="s">
         <v>449</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E39" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>960</v>
+      </c>
+      <c r="B40" t="s">
         <v>450</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>961</v>
+      </c>
+      <c r="B41" t="s">
         <v>451</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>962</v>
+      </c>
+      <c r="B42" t="s">
         <v>452</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>963</v>
+      </c>
+      <c r="B43" t="s">
         <v>453</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>964</v>
+      </c>
+      <c r="B44" t="s">
         <v>454</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>965</v>
+      </c>
+      <c r="B45" t="s">
         <v>455</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>966</v>
+      </c>
+      <c r="B46" t="s">
         <v>456</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E46" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>967</v>
+      </c>
+      <c r="B47" t="s">
         <v>457</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E47" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>968</v>
+      </c>
+      <c r="B48" t="s">
         <v>458</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>969</v>
+      </c>
+      <c r="B49" t="s">
         <v>459</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>970</v>
+      </c>
+      <c r="B50" t="s">
         <v>460</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E50" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>971</v>
+      </c>
+      <c r="B51" t="s">
         <v>461</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E51" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>972</v>
+      </c>
+      <c r="B52" t="s">
         <v>462</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E52" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>973</v>
+      </c>
+      <c r="B53" t="s">
         <v>463</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>974</v>
+      </c>
+      <c r="B54" t="s">
         <v>464</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E54" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>975</v>
+      </c>
+      <c r="B55" t="s">
         <v>465</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E55" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>976</v>
+      </c>
+      <c r="B56" t="s">
         <v>466</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>977</v>
+      </c>
+      <c r="B57" t="s">
         <v>467</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E57" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>978</v>
+      </c>
+      <c r="B58" t="s">
         <v>468</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>979</v>
+      </c>
+      <c r="B59" t="s">
         <v>469</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E59" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>980</v>
+      </c>
+      <c r="B60" t="s">
         <v>470</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E60" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>981</v>
+      </c>
+      <c r="B61" t="s">
         <v>471</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E61" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>982</v>
+      </c>
+      <c r="B62" t="s">
         <v>472</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E62" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>983</v>
+      </c>
+      <c r="B63" t="s">
         <v>473</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>984</v>
+      </c>
+      <c r="B64" t="s">
         <v>474</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E64" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>985</v>
+      </c>
+      <c r="B65" t="s">
         <v>475</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E65" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>986</v>
+      </c>
+      <c r="B66" t="s">
         <v>476</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>987</v>
+      </c>
+      <c r="B67" t="s">
         <v>477</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>988</v>
+      </c>
+      <c r="B68" t="s">
         <v>478</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E68" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>989</v>
+      </c>
+      <c r="B69" t="s">
         <v>479</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>990</v>
+      </c>
+      <c r="B70" t="s">
         <v>480</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E70" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>991</v>
+      </c>
+      <c r="B71" t="s">
         <v>481</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E71" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>992</v>
+      </c>
+      <c r="B72" t="s">
         <v>482</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>993</v>
+      </c>
+      <c r="B73" t="s">
         <v>483</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E73" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>994</v>
+      </c>
+      <c r="B74" t="s">
         <v>484</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>7</v>
       </c>
+      <c r="D74" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E74" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4AC549A9-421E-4582-94DC-8B68B44A679A}"/>
+    <hyperlink ref="D3:D74" r:id="rId2" display="https://euipo.europa.eu/ohimportal/nl/databases/ProductID0001" xr:uid="{B942FC27-FB03-4D75-B08D-05F374D32CE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCA278-406F-48F4-BF30-4E6AC9185B47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DE594-556F-4D94-90E5-0482F9A29E9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="3" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturer" sheetId="1" r:id="rId1"/>
@@ -3600,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
   <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -6978,7 +6978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Blockathon_hyper42\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DE594-556F-4D94-90E5-0482F9A29E9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA056B4F-E760-47AA-B5B3-BC720DA0DB3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="2" xr2:uid="{A8368FE9-5A84-4C05-BC24-FA3A00CF4C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturer" sheetId="1" r:id="rId1"/>
@@ -1237,9 +1237,6 @@
     <t>Marc O Polo</t>
   </si>
   <si>
-    <t>Douane Amsterdam</t>
-  </si>
-  <si>
     <t>Douane Rotterdam</t>
   </si>
   <si>
@@ -1507,12 +1504,6 @@
     <t>DSV</t>
   </si>
   <si>
-    <t>CEVA Logistics</t>
-  </si>
-  <si>
-    <t>Nippon Express</t>
-  </si>
-  <si>
     <t>Maersk</t>
   </si>
   <si>
@@ -3236,6 +3227,15 @@
   </si>
   <si>
     <t>https://euipo.europa.eu/ohimportal/nl/databases/ProductID0073</t>
+  </si>
+  <si>
+    <t>CEVALogistics</t>
+  </si>
+  <si>
+    <t>NipponExpress</t>
+  </si>
+  <si>
+    <t>Douane_Amsterdam</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382E85-A5EE-423B-83A5-84997E0C5C39}">
   <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -3611,10 +3611,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3622,7 +3622,7 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3646,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3670,7 +3670,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3678,7 +3678,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3718,7 +3718,7 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3742,7 +3742,7 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3774,7 +3774,7 @@
         <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3790,7 +3790,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3830,7 +3830,7 @@
         <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3838,7 +3838,7 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3846,7 +3846,7 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3886,7 +3886,7 @@
         <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3894,7 +3894,7 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3902,7 +3902,7 @@
         <v>395</v>
       </c>
       <c r="B37" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3918,7 +3918,7 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
         <v>394</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3958,7 +3958,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3974,7 +3974,7 @@
         <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
         <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3998,7 +3998,7 @@
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4046,7 +4046,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
         <v>391</v>
       </c>
       <c r="B59" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>393</v>
       </c>
       <c r="B62" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4110,7 +4110,7 @@
         <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4118,7 +4118,7 @@
         <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
         <v>145</v>
       </c>
       <c r="B65" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
         <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4174,7 +4174,7 @@
         <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4182,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4206,7 +4206,7 @@
         <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4246,7 +4246,7 @@
         <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4262,7 +4262,7 @@
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4270,7 +4270,7 @@
         <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
         <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
         <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4294,7 +4294,7 @@
         <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4302,7 +4302,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4350,7 +4350,7 @@
         <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4358,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4366,7 +4366,7 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4374,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4382,7 +4382,7 @@
         <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4390,7 +4390,7 @@
         <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4406,7 +4406,7 @@
         <v>389</v>
       </c>
       <c r="B100" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4422,7 +4422,7 @@
         <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
         <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4454,7 +4454,7 @@
         <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
         <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>173</v>
       </c>
       <c r="B108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4478,7 +4478,7 @@
         <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4486,7 +4486,7 @@
         <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4494,7 +4494,7 @@
         <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
         <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4510,7 +4510,7 @@
         <v>176</v>
       </c>
       <c r="B113" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
         <v>177</v>
       </c>
       <c r="B114" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4526,7 +4526,7 @@
         <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
         <v>179</v>
       </c>
       <c r="B116" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4542,7 +4542,7 @@
         <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4550,7 +4550,7 @@
         <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4566,7 +4566,7 @@
         <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4574,7 +4574,7 @@
         <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4590,7 +4590,7 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4598,7 +4598,7 @@
         <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4614,7 +4614,7 @@
         <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
         <v>35</v>
       </c>
       <c r="B127" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4630,7 +4630,7 @@
         <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4638,7 +4638,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
         <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
         <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4662,7 +4662,7 @@
         <v>37</v>
       </c>
       <c r="B132" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4670,7 +4670,7 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4678,7 +4678,7 @@
         <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4686,7 +4686,7 @@
         <v>39</v>
       </c>
       <c r="B135" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -4694,7 +4694,7 @@
         <v>388</v>
       </c>
       <c r="B136" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -4702,7 +4702,7 @@
         <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -4710,7 +4710,7 @@
         <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -4718,7 +4718,7 @@
         <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
         <v>41</v>
       </c>
       <c r="B140" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -4734,7 +4734,7 @@
         <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -4742,7 +4742,7 @@
         <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -4750,7 +4750,7 @@
         <v>195</v>
       </c>
       <c r="B143" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>196</v>
       </c>
       <c r="B144" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>43</v>
       </c>
       <c r="B145" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
         <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -4782,7 +4782,7 @@
         <v>197</v>
       </c>
       <c r="B147" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -4790,7 +4790,7 @@
         <v>198</v>
       </c>
       <c r="B148" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -4798,7 +4798,7 @@
         <v>46</v>
       </c>
       <c r="B149" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
         <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -4814,7 +4814,7 @@
         <v>199</v>
       </c>
       <c r="B151" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -4822,7 +4822,7 @@
         <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -4830,7 +4830,7 @@
         <v>201</v>
       </c>
       <c r="B153" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -4838,7 +4838,7 @@
         <v>202</v>
       </c>
       <c r="B154" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
         <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -4854,7 +4854,7 @@
         <v>204</v>
       </c>
       <c r="B156" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
         <v>205</v>
       </c>
       <c r="B157" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B158" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -4878,7 +4878,7 @@
         <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -4886,7 +4886,7 @@
         <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
         <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4902,7 +4902,7 @@
         <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4910,7 +4910,7 @@
         <v>50</v>
       </c>
       <c r="B163" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4918,7 +4918,7 @@
         <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>51</v>
       </c>
       <c r="B165" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
         <v>210</v>
       </c>
       <c r="B166" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4942,7 +4942,7 @@
         <v>211</v>
       </c>
       <c r="B167" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
         <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4958,7 +4958,7 @@
         <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4966,7 +4966,7 @@
         <v>212</v>
       </c>
       <c r="B170" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>53</v>
       </c>
       <c r="B171" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -4982,7 +4982,7 @@
         <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -4990,7 +4990,7 @@
         <v>214</v>
       </c>
       <c r="B173" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -4998,7 +4998,7 @@
         <v>397</v>
       </c>
       <c r="B174" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
         <v>215</v>
       </c>
       <c r="B175" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5014,7 +5014,7 @@
         <v>216</v>
       </c>
       <c r="B176" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5022,7 +5022,7 @@
         <v>217</v>
       </c>
       <c r="B177" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>218</v>
       </c>
       <c r="B178" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5038,7 +5038,7 @@
         <v>219</v>
       </c>
       <c r="B179" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5046,7 +5046,7 @@
         <v>54</v>
       </c>
       <c r="B180" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
         <v>401</v>
       </c>
       <c r="B181" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5062,7 +5062,7 @@
         <v>55</v>
       </c>
       <c r="B182" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>220</v>
       </c>
       <c r="B183" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
         <v>221</v>
       </c>
       <c r="B184" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
         <v>222</v>
       </c>
       <c r="B185" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5094,7 +5094,7 @@
         <v>223</v>
       </c>
       <c r="B186" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5102,7 +5102,7 @@
         <v>224</v>
       </c>
       <c r="B187" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>225</v>
       </c>
       <c r="B188" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5118,7 +5118,7 @@
         <v>226</v>
       </c>
       <c r="B189" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5126,7 +5126,7 @@
         <v>227</v>
       </c>
       <c r="B190" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>56</v>
       </c>
       <c r="B191" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5142,7 +5142,7 @@
         <v>228</v>
       </c>
       <c r="B192" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
         <v>229</v>
       </c>
       <c r="B193" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
         <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>231</v>
       </c>
       <c r="B195" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +5174,7 @@
         <v>232</v>
       </c>
       <c r="B196" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5182,7 +5182,7 @@
         <v>233</v>
       </c>
       <c r="B197" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5206,7 +5206,7 @@
         <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5214,7 +5214,7 @@
         <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,7 +5222,7 @@
         <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
         <v>57</v>
       </c>
       <c r="B203" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5238,7 +5238,7 @@
         <v>239</v>
       </c>
       <c r="B204" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +5246,7 @@
         <v>58</v>
       </c>
       <c r="B205" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5254,7 +5254,7 @@
         <v>59</v>
       </c>
       <c r="B206" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5262,7 +5262,7 @@
         <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5278,7 +5278,7 @@
         <v>241</v>
       </c>
       <c r="B209" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>60</v>
       </c>
       <c r="B210" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5294,7 +5294,7 @@
         <v>242</v>
       </c>
       <c r="B211" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5302,7 +5302,7 @@
         <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5310,7 +5310,7 @@
         <v>244</v>
       </c>
       <c r="B213" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,7 +5318,7 @@
         <v>61</v>
       </c>
       <c r="B214" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5326,7 +5326,7 @@
         <v>62</v>
       </c>
       <c r="B215" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5334,7 +5334,7 @@
         <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5342,7 +5342,7 @@
         <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5350,7 +5350,7 @@
         <v>63</v>
       </c>
       <c r="B218" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5358,7 +5358,7 @@
         <v>247</v>
       </c>
       <c r="B219" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
         <v>64</v>
       </c>
       <c r="B220" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
         <v>65</v>
       </c>
       <c r="B221" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>248</v>
       </c>
       <c r="B222" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
         <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5398,7 +5398,7 @@
         <v>250</v>
       </c>
       <c r="B224" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
         <v>66</v>
       </c>
       <c r="B225" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>251</v>
       </c>
       <c r="B226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5422,7 +5422,7 @@
         <v>252</v>
       </c>
       <c r="B227" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5430,7 +5430,7 @@
         <v>253</v>
       </c>
       <c r="B228" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5438,7 +5438,7 @@
         <v>67</v>
       </c>
       <c r="B229" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5446,7 +5446,7 @@
         <v>69</v>
       </c>
       <c r="B230" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5454,7 +5454,7 @@
         <v>68</v>
       </c>
       <c r="B231" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5462,7 +5462,7 @@
         <v>254</v>
       </c>
       <c r="B232" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
         <v>255</v>
       </c>
       <c r="B233" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5478,7 +5478,7 @@
         <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5486,7 +5486,7 @@
         <v>257</v>
       </c>
       <c r="B235" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5494,7 +5494,7 @@
         <v>70</v>
       </c>
       <c r="B236" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5502,7 +5502,7 @@
         <v>71</v>
       </c>
       <c r="B237" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>258</v>
       </c>
       <c r="B238" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5518,7 +5518,7 @@
         <v>259</v>
       </c>
       <c r="B239" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5526,7 +5526,7 @@
         <v>260</v>
       </c>
       <c r="B240" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
         <v>72</v>
       </c>
       <c r="B241" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5542,7 +5542,7 @@
         <v>73</v>
       </c>
       <c r="B242" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>74</v>
       </c>
       <c r="B243" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
         <v>261</v>
       </c>
       <c r="B244" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5566,7 +5566,7 @@
         <v>75</v>
       </c>
       <c r="B245" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5574,7 +5574,7 @@
         <v>76</v>
       </c>
       <c r="B246" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5582,7 +5582,7 @@
         <v>262</v>
       </c>
       <c r="B247" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>263</v>
       </c>
       <c r="B248" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5598,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="B249" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
         <v>264</v>
       </c>
       <c r="B250" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5614,7 +5614,7 @@
         <v>265</v>
       </c>
       <c r="B251" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -5622,7 +5622,7 @@
         <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5630,7 +5630,7 @@
         <v>267</v>
       </c>
       <c r="B253" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5638,7 +5638,7 @@
         <v>79</v>
       </c>
       <c r="B254" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5646,7 +5646,7 @@
         <v>268</v>
       </c>
       <c r="B255" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
         <v>269</v>
       </c>
       <c r="B256" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5662,7 +5662,7 @@
         <v>80</v>
       </c>
       <c r="B257" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5670,7 +5670,7 @@
         <v>81</v>
       </c>
       <c r="B258" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5678,7 +5678,7 @@
         <v>82</v>
       </c>
       <c r="B259" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5686,7 +5686,7 @@
         <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5694,7 +5694,7 @@
         <v>271</v>
       </c>
       <c r="B261" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -5702,7 +5702,7 @@
         <v>83</v>
       </c>
       <c r="B262" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -5710,7 +5710,7 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -5718,7 +5718,7 @@
         <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -5734,7 +5734,7 @@
         <v>275</v>
       </c>
       <c r="B266" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,7 +5742,7 @@
         <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +5750,7 @@
         <v>277</v>
       </c>
       <c r="B268" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
         <v>278</v>
       </c>
       <c r="B269" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +5766,7 @@
         <v>279</v>
       </c>
       <c r="B270" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,7 +5774,7 @@
         <v>280</v>
       </c>
       <c r="B271" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -5782,7 +5782,7 @@
         <v>281</v>
       </c>
       <c r="B272" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
         <v>282</v>
       </c>
       <c r="B273" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
         <v>283</v>
       </c>
       <c r="B274" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -5806,7 +5806,7 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -5814,7 +5814,7 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +5822,7 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -5830,7 +5830,7 @@
         <v>287</v>
       </c>
       <c r="B278" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -5838,7 +5838,7 @@
         <v>288</v>
       </c>
       <c r="B279" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,7 +5846,7 @@
         <v>289</v>
       </c>
       <c r="B280" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -5854,7 +5854,7 @@
         <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5862,7 +5862,7 @@
         <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
         <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5878,7 +5878,7 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5886,7 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +5894,7 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5902,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>85</v>
       </c>
       <c r="B288" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5918,7 +5918,7 @@
         <v>296</v>
       </c>
       <c r="B289" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,7 +5926,7 @@
         <v>297</v>
       </c>
       <c r="B290" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
         <v>298</v>
       </c>
       <c r="B291" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5942,7 +5942,7 @@
         <v>87</v>
       </c>
       <c r="B292" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5950,7 +5950,7 @@
         <v>299</v>
       </c>
       <c r="B293" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5958,7 +5958,7 @@
         <v>300</v>
       </c>
       <c r="B294" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5966,7 +5966,7 @@
         <v>88</v>
       </c>
       <c r="B295" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5974,7 +5974,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5982,7 +5982,7 @@
         <v>89</v>
       </c>
       <c r="B297" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>302</v>
       </c>
       <c r="B298" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>303</v>
       </c>
       <c r="B299" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6006,7 +6006,7 @@
         <v>90</v>
       </c>
       <c r="B300" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6014,7 +6014,7 @@
         <v>91</v>
       </c>
       <c r="B301" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6022,7 +6022,7 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6030,7 +6030,7 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6038,7 +6038,7 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6046,7 +6046,7 @@
         <v>92</v>
       </c>
       <c r="B305" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6054,7 +6054,7 @@
         <v>93</v>
       </c>
       <c r="B306" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6062,7 +6062,7 @@
         <v>94</v>
       </c>
       <c r="B307" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6078,7 +6078,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6086,7 +6086,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6102,7 +6102,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6110,7 +6110,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6118,7 +6118,7 @@
         <v>95</v>
       </c>
       <c r="B314" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6126,7 +6126,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6134,7 +6134,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6150,7 +6150,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6158,7 +6158,7 @@
         <v>96</v>
       </c>
       <c r="B319" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6166,7 +6166,7 @@
         <v>386</v>
       </c>
       <c r="B320" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6174,7 +6174,7 @@
         <v>317</v>
       </c>
       <c r="B321" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6182,15 +6182,15 @@
         <v>318</v>
       </c>
       <c r="B322" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B323" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6198,7 +6198,7 @@
         <v>97</v>
       </c>
       <c r="B324" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -6222,10 +6222,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6233,7 +6233,7 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6241,7 +6241,7 @@
         <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6249,7 +6249,7 @@
         <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
         <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
         <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +6281,7 @@
         <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6289,7 +6289,7 @@
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6297,7 +6297,7 @@
         <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,7 +6305,7 @@
         <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +6313,7 @@
         <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,7 +6321,7 @@
         <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
         <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
         <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6345,7 +6345,7 @@
         <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +6353,7 @@
         <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6361,7 +6361,7 @@
         <v>399</v>
       </c>
       <c r="B18" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6369,7 +6369,7 @@
         <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6401,7 +6401,7 @@
         <v>346</v>
       </c>
       <c r="B23" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6409,7 +6409,7 @@
         <v>321</v>
       </c>
       <c r="B24" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6417,7 +6417,7 @@
         <v>385</v>
       </c>
       <c r="B25" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +6425,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6433,7 +6433,7 @@
         <v>347</v>
       </c>
       <c r="B27" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6449,7 +6449,7 @@
         <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6457,7 +6457,7 @@
         <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
         <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6473,7 +6473,7 @@
         <v>352</v>
       </c>
       <c r="B32" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6481,7 +6481,7 @@
         <v>353</v>
       </c>
       <c r="B33" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6489,7 +6489,7 @@
         <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +6497,7 @@
         <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6505,7 +6505,7 @@
         <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6513,7 +6513,7 @@
         <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6521,7 +6521,7 @@
         <v>322</v>
       </c>
       <c r="B38" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6529,7 +6529,7 @@
         <v>357</v>
       </c>
       <c r="B39" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
         <v>323</v>
       </c>
       <c r="B41" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>359</v>
       </c>
       <c r="B42" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6561,7 @@
         <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6577,7 +6577,7 @@
         <v>361</v>
       </c>
       <c r="B45" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6585,7 +6585,7 @@
         <v>362</v>
       </c>
       <c r="B46" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
         <v>324</v>
       </c>
       <c r="B47" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6601,7 +6601,7 @@
         <v>363</v>
       </c>
       <c r="B48" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6609,7 +6609,7 @@
         <v>400</v>
       </c>
       <c r="B49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6617,7 +6617,7 @@
         <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6633,7 +6633,7 @@
         <v>365</v>
       </c>
       <c r="B52" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6641,7 +6641,7 @@
         <v>366</v>
       </c>
       <c r="B53" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6649,7 +6649,7 @@
         <v>367</v>
       </c>
       <c r="B54" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6657,7 +6657,7 @@
         <v>368</v>
       </c>
       <c r="B55" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6665,7 +6665,7 @@
         <v>369</v>
       </c>
       <c r="B56" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6673,7 +6673,7 @@
         <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6681,7 +6681,7 @@
         <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6689,7 +6689,7 @@
         <v>372</v>
       </c>
       <c r="B59" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6697,7 +6697,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6705,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6713,7 +6713,7 @@
         <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
         <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B64" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6737,7 +6737,7 @@
         <v>325</v>
       </c>
       <c r="B65" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6745,7 +6745,7 @@
         <v>326</v>
       </c>
       <c r="B66" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
         <v>375</v>
       </c>
       <c r="B67" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6761,7 +6761,7 @@
         <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6769,7 +6769,7 @@
         <v>377</v>
       </c>
       <c r="B69" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6785,7 +6785,7 @@
         <v>378</v>
       </c>
       <c r="B71" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6793,7 +6793,7 @@
         <v>379</v>
       </c>
       <c r="B72" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6801,7 +6801,7 @@
         <v>380</v>
       </c>
       <c r="B73" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6809,7 +6809,7 @@
         <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -6817,7 +6817,7 @@
         <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -6825,7 +6825,7 @@
         <v>381</v>
       </c>
       <c r="B76" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>328</v>
       </c>
       <c r="B77" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>332</v>
       </c>
       <c r="B78" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -6857,7 +6857,7 @@
         <v>382</v>
       </c>
       <c r="B80" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -6872,8 +6872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C8FFF-B55A-4223-8A3A-B7DB0DBD20CE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6883,90 +6883,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>1068</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +6978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C3947-283C-45EE-B2FB-975473C10A44}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6992,7 +6992,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B1" t="s">
         <v>383</v>
@@ -7001,1251 +7001,1251 @@
         <v>384</v>
       </c>
       <c r="D1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C2">
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9">
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11">
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12">
         <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E16" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17">
         <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C18">
         <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E18" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C19">
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21">
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22">
         <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E22" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23">
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E23" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C24">
         <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E24" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C25">
         <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26">
         <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E26" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27">
         <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C28">
         <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29">
         <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C30">
         <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E30" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31">
         <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32">
         <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E32" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33">
         <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C34">
         <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E34" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C35">
         <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E35" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C36">
         <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E36" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C37">
         <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E37" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C38">
         <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E38" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C39">
         <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E39" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C40">
         <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E40" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C41">
         <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E41" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C42">
         <v>96</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E42" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C43">
         <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E43" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C44">
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E44" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E46" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E48" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E49" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E50" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E51" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C52">
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E52" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E53" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54">
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E54" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E55" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56">
         <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E56" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C57">
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E57" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58">
         <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E58" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B59" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C59">
         <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E59" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B60" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C60">
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E60" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C61">
         <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E61" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B62" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C62">
         <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E62" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C63">
         <v>56</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E63" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C64">
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E64" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E65" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E66" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C67">
         <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E67" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E68" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C69">
         <v>85</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E69" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B70" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C70">
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E70" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C71">
         <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E71" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E72" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C73">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E73" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C74">
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E74" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -8262,7 +8262,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8273,90 +8273,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>1066</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>1067</v>
       </c>
       <c r="B10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
